--- a/ExcelFiles/202010/OUT_202010_财务系统导入.xlsx
+++ b/ExcelFiles/202010/OUT_202010_财务系统导入.xlsx
@@ -3376,10 +3376,10 @@
         <v>9100139300</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>39100461</v>
@@ -5068,7 +5068,7 @@
         <v>9100004170</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -20484,10 +20484,10 @@
         <v>9100059300</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1">
         <v>39100303</v>
@@ -31767,7 +31767,7 @@
         <v>93</v>
       </c>
       <c r="E160" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F160" s="1">
         <v>39100584</v>
@@ -34399,7 +34399,7 @@
         <v>104</v>
       </c>
       <c r="E174" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1">
         <v>39100330</v>
@@ -40979,7 +40979,7 @@
         <v>86</v>
       </c>
       <c r="E209" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F209" s="1">
         <v>39100463</v>
@@ -46240,7 +46240,7 @@
         <v>9100003180</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E237" s="1">
         <v>0</v>
@@ -54139,7 +54139,7 @@
         <v>104</v>
       </c>
       <c r="E279" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F279" s="1">
         <v>39100575</v>
@@ -55831,7 +55831,7 @@
         <v>129</v>
       </c>
       <c r="E288" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F288" s="1">
         <v>39100588</v>
@@ -57118,7 +57118,7 @@
         <v>0.0</v>
       </c>
       <c r="BF294" s="2">
-        <v>13214.62</v>
+        <v>13052.12</v>
       </c>
       <c r="BG294" s="2">
         <v>0.0</v>
@@ -57306,7 +57306,7 @@
         <v>0.0</v>
       </c>
       <c r="BF295" s="2">
-        <v>18507.81</v>
+        <v>18282.81</v>
       </c>
       <c r="BG295" s="2">
         <v>0.0</v>
@@ -57494,7 +57494,7 @@
         <v>0.0</v>
       </c>
       <c r="BF296" s="2">
-        <v>15129.12</v>
+        <v>14941.62</v>
       </c>
       <c r="BG296" s="2">
         <v>0.0</v>
@@ -57682,7 +57682,7 @@
         <v>0.0</v>
       </c>
       <c r="BF297" s="2">
-        <v>19147.55</v>
+        <v>18873.84</v>
       </c>
       <c r="BG297" s="2">
         <v>0.0</v>
@@ -57870,7 +57870,7 @@
         <v>0.0</v>
       </c>
       <c r="BF298" s="2">
-        <v>11884.29</v>
+        <v>11734.29</v>
       </c>
       <c r="BG298" s="2">
         <v>0.0</v>
@@ -58058,7 +58058,7 @@
         <v>0.0</v>
       </c>
       <c r="BF299" s="2">
-        <v>19964.93</v>
+        <v>19691.22</v>
       </c>
       <c r="BG299" s="2">
         <v>0.0</v>
@@ -58246,7 +58246,7 @@
         <v>0.0</v>
       </c>
       <c r="BF300" s="2">
-        <v>11716.37</v>
+        <v>11591.37</v>
       </c>
       <c r="BG300" s="2">
         <v>0.0</v>
@@ -58434,7 +58434,7 @@
         <v>0.0</v>
       </c>
       <c r="BF301" s="2">
-        <v>10852.55</v>
+        <v>10727.55</v>
       </c>
       <c r="BG301" s="2">
         <v>0.0</v>
@@ -58622,7 +58622,7 @@
         <v>0.0</v>
       </c>
       <c r="BF302" s="2">
-        <v>11795.99</v>
+        <v>11670.99</v>
       </c>
       <c r="BG302" s="2">
         <v>0.0</v>
@@ -58810,7 +58810,7 @@
         <v>0.0</v>
       </c>
       <c r="BF303" s="2">
-        <v>6947.2</v>
+        <v>6867.2</v>
       </c>
       <c r="BG303" s="2">
         <v>0.0</v>
@@ -58998,7 +58998,7 @@
         <v>0.0</v>
       </c>
       <c r="BF304" s="2">
-        <v>13301.62</v>
+        <v>13139.12</v>
       </c>
       <c r="BG304" s="2">
         <v>0.0</v>
@@ -59186,7 +59186,7 @@
         <v>0.0</v>
       </c>
       <c r="BF305" s="2">
-        <v>7022.01</v>
+        <v>6938.26</v>
       </c>
       <c r="BG305" s="2">
         <v>0.0</v>
@@ -59374,7 +59374,7 @@
         <v>0.0</v>
       </c>
       <c r="BF306" s="2">
-        <v>6856.21</v>
+        <v>6771.21</v>
       </c>
       <c r="BG306" s="2">
         <v>0.0</v>
@@ -59562,7 +59562,7 @@
         <v>0.0</v>
       </c>
       <c r="BF307" s="2">
-        <v>17884.81</v>
+        <v>17684.81</v>
       </c>
       <c r="BG307" s="2">
         <v>0.0</v>
@@ -59750,7 +59750,7 @@
         <v>0.0</v>
       </c>
       <c r="BF308" s="2">
-        <v>12034.62</v>
+        <v>11947.12</v>
       </c>
       <c r="BG308" s="2">
         <v>0.0</v>
@@ -59776,10 +59776,10 @@
         <v>9100059300</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E309" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F309" s="1">
         <v>39100067</v>
@@ -59938,7 +59938,7 @@
         <v>0.0</v>
       </c>
       <c r="BF309" s="2">
-        <v>21676.12</v>
+        <v>21551.12</v>
       </c>
       <c r="BG309" s="2">
         <v>0.0</v>
@@ -60126,7 +60126,7 @@
         <v>0.0</v>
       </c>
       <c r="BF310" s="2">
-        <v>8704.85</v>
+        <v>8617.35</v>
       </c>
       <c r="BG310" s="2">
         <v>0.0</v>
@@ -60314,7 +60314,7 @@
         <v>0.0</v>
       </c>
       <c r="BF311" s="2">
-        <v>27302.93</v>
+        <v>27029.22</v>
       </c>
       <c r="BG311" s="2">
         <v>0.0</v>
@@ -60502,7 +60502,7 @@
         <v>0.0</v>
       </c>
       <c r="BF312" s="2">
-        <v>18741.81</v>
+        <v>18504.31</v>
       </c>
       <c r="BG312" s="2">
         <v>0.0</v>
@@ -60690,7 +60690,7 @@
         <v>0.0</v>
       </c>
       <c r="BF313" s="2">
-        <v>13745.06</v>
+        <v>13658.81</v>
       </c>
       <c r="BG313" s="2">
         <v>0.0</v>
@@ -60878,7 +60878,7 @@
         <v>0.0</v>
       </c>
       <c r="BF314" s="2">
-        <v>16981.81</v>
+        <v>16781.81</v>
       </c>
       <c r="BG314" s="2">
         <v>0.0</v>
@@ -61066,7 +61066,7 @@
         <v>0.0</v>
       </c>
       <c r="BF315" s="2">
-        <v>26658.93</v>
+        <v>26385.22</v>
       </c>
       <c r="BG315" s="2">
         <v>0.0</v>
@@ -61254,7 +61254,7 @@
         <v>0.0</v>
       </c>
       <c r="BF316" s="2">
-        <v>15360.37</v>
+        <v>15222.87</v>
       </c>
       <c r="BG316" s="2">
         <v>0.0</v>
@@ -61442,7 +61442,7 @@
         <v>0.0</v>
       </c>
       <c r="BF317" s="2">
-        <v>13513.62</v>
+        <v>13338.62</v>
       </c>
       <c r="BG317" s="2">
         <v>0.0</v>
@@ -61630,7 +61630,7 @@
         <v>0.0</v>
       </c>
       <c r="BF318" s="2">
-        <v>16584.87</v>
+        <v>16409.87</v>
       </c>
       <c r="BG318" s="2">
         <v>0.0</v>
@@ -61818,7 +61818,7 @@
         <v>0.0</v>
       </c>
       <c r="BF319" s="2">
-        <v>19147.55</v>
+        <v>18873.84</v>
       </c>
       <c r="BG319" s="2">
         <v>0.0</v>
@@ -62006,7 +62006,7 @@
         <v>0.0</v>
       </c>
       <c r="BF320" s="2">
-        <v>5678.15</v>
+        <v>5606.9</v>
       </c>
       <c r="BG320" s="2">
         <v>0.0</v>
@@ -62194,7 +62194,7 @@
         <v>0.0</v>
       </c>
       <c r="BF321" s="2">
-        <v>22781.95</v>
+        <v>22508.24</v>
       </c>
       <c r="BG321" s="2">
         <v>0.0</v>
@@ -62382,7 +62382,7 @@
         <v>0.0</v>
       </c>
       <c r="BF322" s="2">
-        <v>15333.5</v>
+        <v>15121.0</v>
       </c>
       <c r="BG322" s="2">
         <v>0.0</v>
@@ -62570,7 +62570,7 @@
         <v>0.0</v>
       </c>
       <c r="BF323" s="2">
-        <v>7728.88</v>
+        <v>7635.13</v>
       </c>
       <c r="BG323" s="2">
         <v>0.0</v>
@@ -62758,7 +62758,7 @@
         <v>0.0</v>
       </c>
       <c r="BF324" s="2">
-        <v>9406.92</v>
+        <v>9329.42</v>
       </c>
       <c r="BG324" s="2">
         <v>0.0</v>
@@ -62946,7 +62946,7 @@
         <v>0.0</v>
       </c>
       <c r="BF325" s="2">
-        <v>17432.83</v>
+        <v>17202.32</v>
       </c>
       <c r="BG325" s="2">
         <v>0.0</v>
@@ -63134,7 +63134,7 @@
         <v>0.0</v>
       </c>
       <c r="BF326" s="2">
-        <v>6806.21</v>
+        <v>6721.21</v>
       </c>
       <c r="BG326" s="2">
         <v>0.0</v>
@@ -63322,7 +63322,7 @@
         <v>0.0</v>
       </c>
       <c r="BF327" s="2">
-        <v>19454.91</v>
+        <v>19237.41</v>
       </c>
       <c r="BG327" s="2">
         <v>0.0</v>
@@ -63510,7 +63510,7 @@
         <v>0.0</v>
       </c>
       <c r="BF328" s="2">
-        <v>16571.87</v>
+        <v>16384.37</v>
       </c>
       <c r="BG328" s="2">
         <v>0.0</v>
@@ -63698,7 +63698,7 @@
         <v>0.0</v>
       </c>
       <c r="BF329" s="2">
-        <v>3937.71</v>
+        <v>3893.96</v>
       </c>
       <c r="BG329" s="2">
         <v>0.0</v>
@@ -63886,7 +63886,7 @@
         <v>0.0</v>
       </c>
       <c r="BF330" s="2">
-        <v>22845.05</v>
+        <v>22571.34</v>
       </c>
       <c r="BG330" s="2">
         <v>0.0</v>
@@ -64074,7 +64074,7 @@
         <v>0.0</v>
       </c>
       <c r="BF331" s="2">
-        <v>11416.5</v>
+        <v>11344.0</v>
       </c>
       <c r="BG331" s="2">
         <v>0.0</v>
@@ -64262,7 +64262,7 @@
         <v>0.0</v>
       </c>
       <c r="BF332" s="2">
-        <v>10090.68</v>
+        <v>10016.93</v>
       </c>
       <c r="BG332" s="2">
         <v>0.0</v>
@@ -64450,7 +64450,7 @@
         <v>0.0</v>
       </c>
       <c r="BF333" s="2">
-        <v>19052.55</v>
+        <v>18778.84</v>
       </c>
       <c r="BG333" s="2">
         <v>0.0</v>
@@ -64638,7 +64638,7 @@
         <v>0.0</v>
       </c>
       <c r="BF334" s="2">
-        <v>18171.5</v>
+        <v>17984.0</v>
       </c>
       <c r="BG334" s="2">
         <v>0.0</v>
@@ -64826,7 +64826,7 @@
         <v>0.0</v>
       </c>
       <c r="BF335" s="2">
-        <v>9048.8</v>
+        <v>8963.8</v>
       </c>
       <c r="BG335" s="2">
         <v>0.0</v>
@@ -65014,7 +65014,7 @@
         <v>0.0</v>
       </c>
       <c r="BF336" s="2">
-        <v>7159.46</v>
+        <v>7078.21</v>
       </c>
       <c r="BG336" s="2">
         <v>0.0</v>
@@ -65202,7 +65202,7 @@
         <v>0.0</v>
       </c>
       <c r="BF337" s="2">
-        <v>13400.62</v>
+        <v>13263.12</v>
       </c>
       <c r="BG337" s="2">
         <v>0.0</v>
@@ -65390,7 +65390,7 @@
         <v>0.0</v>
       </c>
       <c r="BF338" s="2">
-        <v>15988.91</v>
+        <v>15927.66</v>
       </c>
       <c r="BG338" s="2">
         <v>0.0</v>
@@ -65578,7 +65578,7 @@
         <v>0.0</v>
       </c>
       <c r="BF339" s="2">
-        <v>5832.94</v>
+        <v>5770.44</v>
       </c>
       <c r="BG339" s="2">
         <v>0.0</v>
@@ -65766,7 +65766,7 @@
         <v>0.0</v>
       </c>
       <c r="BF340" s="2">
-        <v>25935.55</v>
+        <v>25661.84</v>
       </c>
       <c r="BG340" s="2">
         <v>0.0</v>
@@ -65954,7 +65954,7 @@
         <v>0.0</v>
       </c>
       <c r="BF341" s="2">
-        <v>10368.54</v>
+        <v>10286.04</v>
       </c>
       <c r="BG341" s="2">
         <v>0.0</v>
@@ -66142,7 +66142,7 @@
         <v>0.0</v>
       </c>
       <c r="BF342" s="2">
-        <v>6035.03</v>
+        <v>5963.78</v>
       </c>
       <c r="BG342" s="2">
         <v>0.0</v>
@@ -66330,7 +66330,7 @@
         <v>0.0</v>
       </c>
       <c r="BF343" s="2">
-        <v>21293.79</v>
+        <v>21068.79</v>
       </c>
       <c r="BG343" s="2">
         <v>0.0</v>
@@ -66518,7 +66518,7 @@
         <v>0.0</v>
       </c>
       <c r="BF344" s="2">
-        <v>22512.79</v>
+        <v>22275.29</v>
       </c>
       <c r="BG344" s="2">
         <v>0.0</v>
@@ -66706,7 +66706,7 @@
         <v>0.0</v>
       </c>
       <c r="BF345" s="2">
-        <v>19637.29</v>
+        <v>19387.29</v>
       </c>
       <c r="BG345" s="2">
         <v>0.0</v>
@@ -66894,7 +66894,7 @@
         <v>0.0</v>
       </c>
       <c r="BF346" s="2">
-        <v>7602.68</v>
+        <v>7510.18</v>
       </c>
       <c r="BG346" s="2">
         <v>0.0</v>
@@ -67082,7 +67082,7 @@
         <v>0.0</v>
       </c>
       <c r="BF347" s="2">
-        <v>5458.43</v>
+        <v>5389.68</v>
       </c>
       <c r="BG347" s="2">
         <v>0.0</v>
@@ -67270,7 +67270,7 @@
         <v>0.0</v>
       </c>
       <c r="BF348" s="2">
-        <v>9078.51</v>
+        <v>8991.01</v>
       </c>
       <c r="BG348" s="2">
         <v>0.0</v>
@@ -67458,7 +67458,7 @@
         <v>0.0</v>
       </c>
       <c r="BF349" s="2">
-        <v>9147.14</v>
+        <v>9072.14</v>
       </c>
       <c r="BG349" s="2">
         <v>0.0</v>
@@ -67646,7 +67646,7 @@
         <v>0.0</v>
       </c>
       <c r="BF350" s="2">
-        <v>9800.59</v>
+        <v>9719.34</v>
       </c>
       <c r="BG350" s="2">
         <v>0.0</v>
@@ -67834,7 +67834,7 @@
         <v>0.0</v>
       </c>
       <c r="BF351" s="2">
-        <v>5823.05</v>
+        <v>5753.05</v>
       </c>
       <c r="BG351" s="2">
         <v>0.0</v>
@@ -68022,7 +68022,7 @@
         <v>0.0</v>
       </c>
       <c r="BF352" s="2">
-        <v>5795.72</v>
+        <v>5729.47</v>
       </c>
       <c r="BG352" s="2">
         <v>0.0</v>
@@ -68210,7 +68210,7 @@
         <v>0.0</v>
       </c>
       <c r="BF353" s="2">
-        <v>8445.77</v>
+        <v>8358.27</v>
       </c>
       <c r="BG353" s="2">
         <v>0.0</v>
@@ -68398,7 +68398,7 @@
         <v>0.0</v>
       </c>
       <c r="BF354" s="2">
-        <v>20047.5</v>
+        <v>19872.5</v>
       </c>
       <c r="BG354" s="2">
         <v>0.0</v>
@@ -68586,7 +68586,7 @@
         <v>0.0</v>
       </c>
       <c r="BF355" s="2">
-        <v>5556.86</v>
+        <v>5490.61</v>
       </c>
       <c r="BG355" s="2">
         <v>0.0</v>
@@ -68774,7 +68774,7 @@
         <v>0.0</v>
       </c>
       <c r="BF356" s="2">
-        <v>4846.77</v>
+        <v>4790.52</v>
       </c>
       <c r="BG356" s="2">
         <v>0.0</v>
@@ -68962,7 +68962,7 @@
         <v>0.0</v>
       </c>
       <c r="BF357" s="2">
-        <v>5391.48</v>
+        <v>5325.23</v>
       </c>
       <c r="BG357" s="2">
         <v>0.0</v>
@@ -69150,7 +69150,7 @@
         <v>0.0</v>
       </c>
       <c r="BF358" s="2">
-        <v>5803.43</v>
+        <v>5732.18</v>
       </c>
       <c r="BG358" s="2">
         <v>0.0</v>
@@ -69338,7 +69338,7 @@
         <v>0.0</v>
       </c>
       <c r="BF359" s="2">
-        <v>6348.78</v>
+        <v>6270.03</v>
       </c>
       <c r="BG359" s="2">
         <v>0.0</v>
@@ -69526,7 +69526,7 @@
         <v>0.0</v>
       </c>
       <c r="BF360" s="2">
-        <v>12744.06</v>
+        <v>12661.56</v>
       </c>
       <c r="BG360" s="2">
         <v>0.0</v>
@@ -69714,7 +69714,7 @@
         <v>0.0</v>
       </c>
       <c r="BF361" s="2">
-        <v>8414.53</v>
+        <v>8333.28</v>
       </c>
       <c r="BG361" s="2">
         <v>0.0</v>
@@ -69902,7 +69902,7 @@
         <v>0.0</v>
       </c>
       <c r="BF362" s="2">
-        <v>9672.53</v>
+        <v>9597.53</v>
       </c>
       <c r="BG362" s="2">
         <v>0.0</v>
@@ -70090,7 +70090,7 @@
         <v>0.0</v>
       </c>
       <c r="BF363" s="2">
-        <v>17510.81</v>
+        <v>17434.56</v>
       </c>
       <c r="BG363" s="2">
         <v>0.0</v>
@@ -70278,7 +70278,7 @@
         <v>0.0</v>
       </c>
       <c r="BF364" s="2">
-        <v>12247.12</v>
+        <v>12168.37</v>
       </c>
       <c r="BG364" s="2">
         <v>0.0</v>
@@ -70466,7 +70466,7 @@
         <v>0.0</v>
       </c>
       <c r="BF365" s="2">
-        <v>5315.28</v>
+        <v>5250.28</v>
       </c>
       <c r="BG365" s="2">
         <v>0.0</v>
@@ -70654,7 +70654,7 @@
         <v>0.0</v>
       </c>
       <c r="BF366" s="2">
-        <v>12247.65</v>
+        <v>12167.65</v>
       </c>
       <c r="BG366" s="2">
         <v>0.0</v>
@@ -70842,7 +70842,7 @@
         <v>0.0</v>
       </c>
       <c r="BF367" s="2">
-        <v>9148.58</v>
+        <v>9073.58</v>
       </c>
       <c r="BG367" s="2">
         <v>0.0</v>
@@ -71030,7 +71030,7 @@
         <v>0.0</v>
       </c>
       <c r="BF368" s="2">
-        <v>5830.65</v>
+        <v>5763.15</v>
       </c>
       <c r="BG368" s="2">
         <v>0.0</v>
@@ -71218,7 +71218,7 @@
         <v>0.0</v>
       </c>
       <c r="BF369" s="2">
-        <v>5416.03</v>
+        <v>5349.78</v>
       </c>
       <c r="BG369" s="2">
         <v>0.0</v>
@@ -71406,7 +71406,7 @@
         <v>0.0</v>
       </c>
       <c r="BF370" s="2">
-        <v>7946.52</v>
+        <v>7861.52</v>
       </c>
       <c r="BG370" s="2">
         <v>0.0</v>
